--- a/workspace_jupyter/data/news.xlsx
+++ b/workspace_jupyter/data/news.xlsx
@@ -24,845 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
-  <si>
-    <t>1       20500</t>
-  </si>
-  <si>
-    <t>2       18300</t>
-  </si>
-  <si>
-    <t>3       19900</t>
-  </si>
-  <si>
-    <t>4       20500</t>
-  </si>
-  <si>
-    <t>5       21000</t>
-  </si>
-  <si>
-    <t>6       20800</t>
-  </si>
-  <si>
-    <t>7       21000</t>
-  </si>
-  <si>
-    <t>8       20600</t>
-  </si>
-  <si>
-    <t>9       20800</t>
-  </si>
-  <si>
-    <t>10      20300</t>
-  </si>
-  <si>
-    <t>11      20800</t>
-  </si>
-  <si>
-    <t>12      19900</t>
-  </si>
-  <si>
-    <t>13      20800</t>
-  </si>
-  <si>
-    <t>14      21000</t>
-  </si>
-  <si>
-    <t>15      20600</t>
-  </si>
-  <si>
-    <t>16      20600</t>
-  </si>
-  <si>
-    <t>17      20600</t>
-  </si>
-  <si>
-    <t>18      20500</t>
-  </si>
-  <si>
-    <t>19      20700</t>
-  </si>
-  <si>
-    <t>20      20100</t>
-  </si>
-  <si>
-    <t>21      21000</t>
-  </si>
-  <si>
-    <t>22      20400</t>
-  </si>
-  <si>
-    <t>23      20600</t>
-  </si>
-  <si>
-    <t>24      21000</t>
-  </si>
-  <si>
-    <t>25      20200</t>
-  </si>
-  <si>
-    <t>26      21000</t>
-  </si>
-  <si>
-    <t>27      20500</t>
-  </si>
-  <si>
-    <t>28      21100</t>
-  </si>
-  <si>
-    <t>29      21000</t>
-  </si>
-  <si>
-    <t>30      43900</t>
-  </si>
-  <si>
-    <t>31      22800</t>
-  </si>
-  <si>
-    <t>1       22300</t>
-  </si>
-  <si>
-    <t>2       22100</t>
-  </si>
-  <si>
-    <t>3       22600</t>
-  </si>
-  <si>
-    <t>4       22800</t>
-  </si>
-  <si>
-    <t>5       22800</t>
-  </si>
-  <si>
-    <t>6       22500</t>
-  </si>
-  <si>
-    <t>7       22100</t>
-  </si>
-  <si>
-    <t>8       22600</t>
-  </si>
-  <si>
-    <t>9       22600</t>
-  </si>
-  <si>
-    <t>10      22600</t>
-  </si>
-  <si>
-    <t>11      22000</t>
-  </si>
-  <si>
-    <t>12      22800</t>
-  </si>
-  <si>
-    <t>13      21700</t>
-  </si>
-  <si>
-    <t>14      22300</t>
-  </si>
-  <si>
-    <t>15      22200</t>
-  </si>
-  <si>
-    <t>16      22300</t>
-  </si>
-  <si>
-    <t>17      21500</t>
-  </si>
-  <si>
-    <t>18      22800</t>
-  </si>
-  <si>
-    <t>19      21100</t>
-  </si>
-  <si>
-    <t>20      21800</t>
-  </si>
-  <si>
-    <t>21      22800</t>
-  </si>
-  <si>
-    <t>22      22600</t>
-  </si>
-  <si>
-    <t>23      22400</t>
-  </si>
-  <si>
-    <t>24      22800</t>
-  </si>
-  <si>
-    <t>25      22900</t>
-  </si>
-  <si>
-    <t>26      22800</t>
-  </si>
-  <si>
-    <t>27      22600</t>
-  </si>
-  <si>
-    <t>28      22600</t>
-  </si>
-  <si>
-    <t>29/06/2011      22800</t>
-  </si>
-  <si>
-    <t>30/06/2011      22800</t>
-  </si>
-  <si>
-    <t>01/07/2011      22500</t>
-  </si>
-  <si>
-    <t>02/07/2011      22900</t>
-  </si>
-  <si>
-    <t>03/07/2011      22000</t>
-  </si>
-  <si>
-    <t>04/07/2011      22500</t>
-  </si>
-  <si>
-    <t>05/07/2011      22600</t>
-  </si>
-  <si>
-    <t>06/07/2011      21900</t>
-  </si>
-  <si>
-    <t>07/07/2011      22600</t>
-  </si>
-  <si>
-    <t>08/07/2011      22200</t>
-  </si>
-  <si>
-    <t>09/07/2011      22800</t>
-  </si>
-  <si>
-    <t>10/07/2011      22900</t>
-  </si>
-  <si>
-    <t>11/07/2011      45100</t>
-  </si>
-  <si>
-    <t>12/07/2011      22900</t>
-  </si>
-  <si>
-    <t>13/07/2011      23200</t>
-  </si>
-  <si>
-    <t>14/07/2011      23000</t>
-  </si>
-  <si>
-    <t>15/07/2011      23200</t>
-  </si>
-  <si>
-    <t>16/07/2011      23200</t>
-  </si>
-  <si>
-    <t>17/07/2011      23200</t>
-  </si>
-  <si>
-    <t>18/07/2011      22500</t>
-  </si>
-  <si>
-    <t>19/07/2011      23200</t>
-  </si>
-  <si>
-    <t>20/07/2011      21600</t>
-  </si>
-  <si>
-    <t>21/07/2011      22700</t>
-  </si>
-  <si>
-    <t>22/07/2011      23200</t>
-  </si>
-  <si>
-    <t>23/07/2011      22600</t>
-  </si>
-  <si>
-    <t>24/07/2011      22500</t>
-  </si>
-  <si>
-    <t>25/07/2011      23000</t>
-  </si>
-  <si>
-    <t>26/07/2011      22500</t>
-  </si>
-  <si>
-    <t>27/07/2011      23200</t>
-  </si>
-  <si>
-    <t>28/07/2011      23000</t>
-  </si>
-  <si>
-    <t>29/07/2011      23000</t>
-  </si>
-  <si>
-    <t>30/07/2011      22300</t>
-  </si>
-  <si>
-    <t>31/07/2011      23200</t>
-  </si>
-  <si>
-    <t>01/08/2011      23000</t>
-  </si>
-  <si>
-    <t>02/08/2011      22400</t>
-  </si>
-  <si>
-    <t>03/08/2011      23200</t>
-  </si>
-  <si>
-    <t>04/08/2011      22900</t>
-  </si>
-  <si>
-    <t>05/08/2011      22400</t>
-  </si>
-  <si>
-    <t>06/08/2011      23200</t>
-  </si>
-  <si>
-    <t>07/08/2011      21900</t>
-  </si>
-  <si>
-    <t>08/08/2011      23200</t>
-  </si>
-  <si>
-    <t>09/08/2011      22700</t>
-  </si>
-  <si>
-    <t>10/08/2011      22400</t>
-  </si>
-  <si>
-    <t>11/08/2011      22900</t>
-  </si>
-  <si>
-    <t>12/08/2011      23000</t>
-  </si>
-  <si>
-    <t>13/08/2011      23200</t>
-  </si>
-  <si>
-    <t>14/08/2011      23200</t>
-  </si>
-  <si>
-    <t>15/08/2011      22800</t>
-  </si>
-  <si>
-    <t>16/08/2011      22900</t>
-  </si>
-  <si>
-    <t>17/08/2011      23000</t>
-  </si>
-  <si>
-    <t>18/08/2011      21900</t>
-  </si>
-  <si>
-    <t>19/08/2011      23000</t>
-  </si>
-  <si>
-    <t>20/08/2011      23200</t>
-  </si>
-  <si>
-    <t>21/08/2011      23200</t>
-  </si>
-  <si>
-    <t>22/08/2011      48000</t>
-  </si>
-  <si>
-    <t>23/08/2011      24800</t>
-  </si>
-  <si>
-    <t>24/08/2011      23900</t>
-  </si>
-  <si>
-    <t>25/08/2011      21300</t>
-  </si>
-  <si>
-    <t>26/08/2011      24800</t>
-  </si>
-  <si>
-    <t>27/08/2011      24800</t>
-  </si>
-  <si>
-    <t>28/08/2011      24800</t>
-  </si>
-  <si>
-    <t>29/08/2011      24300</t>
-  </si>
-  <si>
-    <t>30/08/2011      24500</t>
-  </si>
-  <si>
-    <t>31/08/2011      24600</t>
-  </si>
-  <si>
-    <t>01/09/2011      24300</t>
-  </si>
-  <si>
-    <t>02/09/2011      24500</t>
-  </si>
-  <si>
-    <t>03/09/2011      23700</t>
-  </si>
-  <si>
-    <t>04/09/2011      24900</t>
-  </si>
-  <si>
-    <t>05/09/2011      24200</t>
-  </si>
-  <si>
-    <t>06/09/2011      23600</t>
-  </si>
-  <si>
-    <t>07/09/2011      24800</t>
-  </si>
-  <si>
-    <t>08/09/2011      24900</t>
-  </si>
-  <si>
-    <t>09/09/2011      24800</t>
-  </si>
-  <si>
-    <t>10/09/2011      24000</t>
-  </si>
-  <si>
-    <t>11/09/2011      24300</t>
-  </si>
-  <si>
-    <t>12/09/2011      24400</t>
-  </si>
-  <si>
-    <t>13/09/2011      24600</t>
-  </si>
-  <si>
-    <t>14/09/2011      24600</t>
-  </si>
-  <si>
-    <t>15/09/2011      24800</t>
-  </si>
-  <si>
-    <t>16/09/2011      24300</t>
-  </si>
-  <si>
-    <t>17/09/2011      24800</t>
-  </si>
-  <si>
-    <t>18/09/2011      24800</t>
-  </si>
-  <si>
-    <t>19/09/2011      24200</t>
-  </si>
-  <si>
-    <t>20/09/2011      24600</t>
-  </si>
-  <si>
-    <t>21/09/2011      24700</t>
-  </si>
-  <si>
-    <t>22/09/2011      24400</t>
-  </si>
-  <si>
-    <t>23/09/2011      24600</t>
-  </si>
-  <si>
-    <t>24/09/2011      24800</t>
-  </si>
-  <si>
-    <t>25/09/2011      24800</t>
-  </si>
-  <si>
-    <t>26/09/2011      24600</t>
-  </si>
-  <si>
-    <t>27/09/2011      24800</t>
-  </si>
-  <si>
-    <t>28/09/2011      24100</t>
-  </si>
-  <si>
-    <t>29/09/2011      23800</t>
-  </si>
-  <si>
-    <t>30/09/2011      24700</t>
-  </si>
-  <si>
-    <t>01/10/2011      24800</t>
-  </si>
-  <si>
-    <t>02/10/2011      51700</t>
-  </si>
-  <si>
-    <t>03/10/2011      26900</t>
-  </si>
-  <si>
-    <t>04/10/2011      25000</t>
-  </si>
-  <si>
-    <t>05/10/2011      24500</t>
-  </si>
-  <si>
-    <t>06/10/2011      24500</t>
-  </si>
-  <si>
-    <t>07/10/2011      26500</t>
-  </si>
-  <si>
-    <t>08/10/2011      26900</t>
-  </si>
-  <si>
-    <t>09/10/2011      26900</t>
-  </si>
-  <si>
-    <t>10/10/2011      26100</t>
-  </si>
-  <si>
-    <t>11/10/2011      26200</t>
-  </si>
-  <si>
-    <t>12/10/2011      26000</t>
-  </si>
-  <si>
-    <t>13/10/2011      25700</t>
-  </si>
-  <si>
-    <t>14/10/2011      25100</t>
-  </si>
-  <si>
-    <t>15/10/2011      26900</t>
-  </si>
-  <si>
-    <t>16/10/2011      26900</t>
-  </si>
-  <si>
-    <t>17/10/2011      26900</t>
-  </si>
-  <si>
-    <t>18/10/2011      26300</t>
-  </si>
-  <si>
-    <t>19/10/2011      26600</t>
-  </si>
-  <si>
-    <t>20/10/2011      25800</t>
-  </si>
-  <si>
-    <t>21/10/2011      25500</t>
-  </si>
-  <si>
-    <t>22/10/2011      26100</t>
-  </si>
-  <si>
-    <t>23/10/2011      26300</t>
-  </si>
-  <si>
-    <t>24/10/2011      26300</t>
-  </si>
-  <si>
-    <t>25/10/2011      26600</t>
-  </si>
-  <si>
-    <t>26/10/2011      25900</t>
-  </si>
-  <si>
-    <t>27/10/2011      26600</t>
-  </si>
-  <si>
-    <t>28/10/2011      26000</t>
-  </si>
-  <si>
-    <t>29/10/2011      26100</t>
-  </si>
-  <si>
-    <t>30/10/2011      26900</t>
-  </si>
-  <si>
-    <t>31/10/2011      25700</t>
-  </si>
-  <si>
-    <t>01/11/2011      26900</t>
-  </si>
-  <si>
-    <t>02/11/2011      26500</t>
-  </si>
-  <si>
-    <t>03/11/2011      26300</t>
-  </si>
-  <si>
-    <t>04/11/2011      25800</t>
-  </si>
-  <si>
-    <t>05/11/2011      26900</t>
-  </si>
-  <si>
-    <t>06/11/2011      26900</t>
-  </si>
-  <si>
-    <t>07/11/2011      26500</t>
-  </si>
-  <si>
-    <t>08/11/2011      26600</t>
-  </si>
-  <si>
-    <t>09/11/2011      26500</t>
-  </si>
-  <si>
-    <t>10/11/2011      26900</t>
-  </si>
-  <si>
-    <t>11/11/2011      26600</t>
-  </si>
-  <si>
-    <t>12/11/2011      26900</t>
-  </si>
-  <si>
-    <t>13/11/2011      54400</t>
-  </si>
-  <si>
-    <t>14/11/2011      27600</t>
-  </si>
-  <si>
-    <t>15/11/2011      27000</t>
-  </si>
-  <si>
-    <t>16/11/2011      26500</t>
-  </si>
-  <si>
-    <t>17/11/2011      27600</t>
-  </si>
-  <si>
-    <t>18/11/2011      27600</t>
-  </si>
-  <si>
-    <t>19/11/2011      27600</t>
-  </si>
-  <si>
-    <t>20/11/2011      26100</t>
-  </si>
-  <si>
-    <t>21/11/2011      27300</t>
-  </si>
-  <si>
-    <t>22/11/2011      27700</t>
-  </si>
-  <si>
-    <t>23/11/2011      27300</t>
-  </si>
-  <si>
-    <t>24/11/2011      27700</t>
-  </si>
-  <si>
-    <t>25/11/2011      27300</t>
-  </si>
-  <si>
-    <t>26/11/2011      27700</t>
-  </si>
-  <si>
-    <t>27/11/2011      26900</t>
-  </si>
-  <si>
-    <t>28/11/2011      27300</t>
-  </si>
-  <si>
-    <t>29/11/2011      27400</t>
-  </si>
-  <si>
-    <t>30/11/2011      27600</t>
-  </si>
-  <si>
-    <t>01/12/2011      27100</t>
-  </si>
-  <si>
-    <t>02/12/2011      27000</t>
-  </si>
-  <si>
-    <t>03/12/2011      27700</t>
-  </si>
-  <si>
-    <t>04/12/2011      27600</t>
-  </si>
-  <si>
-    <t>05/12/2011      27700</t>
-  </si>
-  <si>
-    <t>06/12/2011      26700</t>
-  </si>
-  <si>
-    <t>07/12/2011      27100</t>
-  </si>
-  <si>
-    <t>08/12/2011      27400</t>
-  </si>
-  <si>
-    <t>09/12/2011      27700</t>
-  </si>
-  <si>
-    <t>10/12/2011      27700</t>
-  </si>
-  <si>
-    <t>11/12/2011      27700</t>
-  </si>
-  <si>
-    <t>12/12/2011      27600</t>
-  </si>
-  <si>
-    <t>13/12/2011      27000</t>
-  </si>
-  <si>
-    <t>14/12/2011      27400</t>
-  </si>
-  <si>
-    <t>15/12/2011      26800</t>
-  </si>
-  <si>
-    <t>16/12/2011      26400</t>
-  </si>
-  <si>
-    <t>17/12/2011      27700</t>
-  </si>
-  <si>
-    <t>18/12/2011      26900</t>
-  </si>
-  <si>
-    <t>19/12/2011      25800</t>
-  </si>
-  <si>
-    <t>20/12/2011      27000</t>
-  </si>
-  <si>
-    <t>21/12/2011      26800</t>
-  </si>
-  <si>
-    <t>22/12/2011      27400</t>
-  </si>
-  <si>
-    <t>23/12/2011      27000</t>
-  </si>
-  <si>
-    <t>24/12/2011      26100</t>
-  </si>
-  <si>
-    <t>25/12/2011      28600</t>
-  </si>
-  <si>
-    <t>26/12/2011      28600</t>
-  </si>
-  <si>
-    <t>27/12/2011      28600</t>
-  </si>
-  <si>
-    <t>28/12/2011      27700</t>
-  </si>
-  <si>
-    <t>29/12/2011      28600</t>
-  </si>
-  <si>
-    <t>30/12/2011      28600</t>
-  </si>
-  <si>
-    <t>31/12/2011      28600</t>
-  </si>
-  <si>
-    <t>01/01/2012      28600</t>
-  </si>
-  <si>
-    <t>02/01/2012      28600</t>
-  </si>
-  <si>
-    <t>03/01/2012      27800</t>
-  </si>
-  <si>
-    <t>04/01/2012      28600</t>
-  </si>
-  <si>
-    <t>05/01/2012      28400</t>
-  </si>
-  <si>
-    <t>06/01/2012      28300</t>
-  </si>
-  <si>
-    <t>07/01/2012      28600</t>
-  </si>
-  <si>
-    <t>08/01/2012      28600</t>
-  </si>
-  <si>
-    <t>09/01/2012      28600</t>
-  </si>
-  <si>
-    <t>10/01/2012      28000</t>
-  </si>
-  <si>
-    <t>11/01/2012      28400</t>
-  </si>
-  <si>
-    <t>12/01/2012      28300</t>
-  </si>
-  <si>
-    <t>13/01/2012      28600</t>
-  </si>
-  <si>
-    <t>14/01/2012      27700</t>
-  </si>
-  <si>
-    <t>15/01/2012      28600</t>
-  </si>
-  <si>
-    <t>16/01/2012      27200</t>
-  </si>
-  <si>
-    <t>17/01/2012      28600</t>
-  </si>
-  <si>
-    <t>18/01/2012      27800</t>
-  </si>
-  <si>
-    <t>19/01/2012      28100</t>
-  </si>
-  <si>
-    <t>20/01/2012      28600</t>
-  </si>
-  <si>
-    <t>21/01/2012      28600</t>
-  </si>
-  <si>
-    <t>22/01/2012      28600</t>
-  </si>
-  <si>
-    <t>23/01/2012      28000</t>
-  </si>
-  <si>
-    <t>24/01/2012      28300</t>
-  </si>
-  <si>
-    <t>25/01/2012      28300</t>
-  </si>
-  <si>
-    <t>26/01/2012      28400</t>
-  </si>
-  <si>
-    <t>27/01/2012      28400</t>
-  </si>
-  <si>
-    <t>28/01/2012      28600</t>
-  </si>
-  <si>
-    <t>29/01/2012      28600</t>
-  </si>
-  <si>
-    <t>30/01/2012      28400</t>
-  </si>
-  <si>
-    <t>31/01/2012      28400</t>
-  </si>
-  <si>
-    <t>01/02/2012      27000</t>
-  </si>
-  <si>
-    <t>02/02/2012      27800</t>
-  </si>
-  <si>
-    <t>03/02/2012      28100</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1184,8 +346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="76" workbookViewId="0">
-      <selection activeCell="C280" sqref="C280"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="76" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1193,148 +355,161 @@
     <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>40664</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="C1" s="2">
+        <v>20600</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>40665</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="C2" s="2">
+        <v>18600</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40666</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="C3" s="2">
+        <v>19800</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40667</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="C4" s="2">
+        <v>20600</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40668</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>21200</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40669</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>20900</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40670</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <v>21200</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40671</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <v>20700</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40672</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <v>21200</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40673</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <v>20200</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40674</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <v>20900</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40675</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <v>19900</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40676</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <v>21000</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40677</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40678</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <v>20700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40679</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
+      <c r="C16" s="2">
+        <v>21200</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1342,8 +517,8 @@
         <v>40680</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
+      <c r="C17" s="2">
+        <v>20700</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1351,8 +526,8 @@
         <v>40681</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
+      <c r="C18" s="2">
+        <v>20700</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1360,8 +535,8 @@
         <v>40682</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>18</v>
+      <c r="C19" s="2">
+        <v>20600</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1369,8 +544,8 @@
         <v>40683</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
+      <c r="C20" s="2">
+        <v>20300</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1378,8 +553,8 @@
         <v>40684</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
-        <v>20</v>
+      <c r="C21" s="2">
+        <v>21200</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1387,8 +562,8 @@
         <v>40685</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>21</v>
+      <c r="C22" s="2">
+        <v>20600</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1396,8 +571,8 @@
         <v>40686</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
-        <v>22</v>
+      <c r="C23" s="2">
+        <v>20600</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1405,8 +580,8 @@
         <v>40687</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
-        <v>23</v>
+      <c r="C24" s="2">
+        <v>21200</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1414,8 +589,8 @@
         <v>40688</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
-        <v>24</v>
+      <c r="C25" s="2">
+        <v>20400</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1423,8 +598,8 @@
         <v>40689</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
-        <v>25</v>
+      <c r="C26" s="2">
+        <v>21200</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1432,8 +607,8 @@
         <v>40690</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
-        <v>26</v>
+      <c r="C27" s="2">
+        <v>20800</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1441,8 +616,8 @@
         <v>40691</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
-        <v>27</v>
+      <c r="C28" s="2">
+        <v>21200</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1450,8 +625,8 @@
         <v>40692</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
-        <v>28</v>
+      <c r="C29" s="2">
+        <v>21200</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1459,8 +634,8 @@
         <v>40693</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
-        <v>29</v>
+      <c r="C30" s="2">
+        <v>44100</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1468,8 +643,8 @@
         <v>40694</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
-        <v>30</v>
+      <c r="C31" s="2">
+        <v>23000</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1477,8 +652,8 @@
         <v>40695</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
-        <v>31</v>
+      <c r="C32" s="2">
+        <v>22700</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1486,8 +661,8 @@
         <v>40696</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
-        <v>32</v>
+      <c r="C33" s="2">
+        <v>22000</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1495,8 +670,8 @@
         <v>40697</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
-        <v>33</v>
+      <c r="C34" s="2">
+        <v>22700</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1504,8 +679,8 @@
         <v>40698</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
-        <v>34</v>
+      <c r="C35" s="2">
+        <v>23000</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1513,8 +688,8 @@
         <v>40699</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
-        <v>35</v>
+      <c r="C36" s="2">
+        <v>23000</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1522,8 +697,8 @@
         <v>40700</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="2" t="s">
-        <v>36</v>
+      <c r="C37" s="2">
+        <v>22100</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1531,8 +706,8 @@
         <v>40701</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="2" t="s">
-        <v>37</v>
+      <c r="C38" s="2">
+        <v>22300</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1540,8 +715,8 @@
         <v>40702</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="2" t="s">
-        <v>38</v>
+      <c r="C39" s="2">
+        <v>22700</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1549,8 +724,8 @@
         <v>40703</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="2" t="s">
-        <v>39</v>
+      <c r="C40" s="2">
+        <v>23000</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1558,8 +733,8 @@
         <v>40704</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="2" t="s">
-        <v>40</v>
+      <c r="C41" s="2">
+        <v>22700</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1567,8 +742,8 @@
         <v>40705</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="2" t="s">
-        <v>41</v>
+      <c r="C42" s="2">
+        <v>22100</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1576,8 +751,8 @@
         <v>40706</v>
       </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="2" t="s">
-        <v>42</v>
+      <c r="C43" s="2">
+        <v>23000</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1585,8 +760,8 @@
         <v>40707</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="2" t="s">
-        <v>43</v>
+      <c r="C44" s="2">
+        <v>21900</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1594,8 +769,8 @@
         <v>40708</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="2" t="s">
-        <v>44</v>
+      <c r="C45" s="2">
+        <v>22500</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1603,8 +778,8 @@
         <v>40709</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="2" t="s">
-        <v>45</v>
+      <c r="C46" s="2">
+        <v>22200</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1612,8 +787,8 @@
         <v>40710</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="2" t="s">
-        <v>46</v>
+      <c r="C47" s="2">
+        <v>22200</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1621,8 +796,8 @@
         <v>40711</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="2" t="s">
-        <v>47</v>
+      <c r="C48" s="2">
+        <v>21800</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1630,8 +805,8 @@
         <v>40712</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="2" t="s">
-        <v>48</v>
+      <c r="C49" s="2">
+        <v>23000</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1639,8 +814,8 @@
         <v>40713</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="2" t="s">
-        <v>49</v>
+      <c r="C50" s="2">
+        <v>20600</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1648,8 +823,8 @@
         <v>40714</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="2" t="s">
-        <v>50</v>
+      <c r="C51" s="2">
+        <v>21900</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1657,8 +832,8 @@
         <v>40715</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="2" t="s">
-        <v>51</v>
+      <c r="C52" s="2">
+        <v>23000</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1666,8 +841,8 @@
         <v>40716</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="2" t="s">
-        <v>52</v>
+      <c r="C53" s="2">
+        <v>22500</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1675,8 +850,8 @@
         <v>40717</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="C54" s="2" t="s">
-        <v>53</v>
+      <c r="C54" s="2">
+        <v>22500</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1684,8 +859,8 @@
         <v>40718</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="2" t="s">
-        <v>54</v>
+      <c r="C55" s="2">
+        <v>23000</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1693,8 +868,8 @@
         <v>40719</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="2" t="s">
-        <v>55</v>
+      <c r="C56" s="2">
+        <v>23000</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1702,8 +877,8 @@
         <v>40720</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="C57" s="2" t="s">
-        <v>56</v>
+      <c r="C57" s="2">
+        <v>23000</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1711,8 +886,8 @@
         <v>40721</v>
       </c>
       <c r="B58" s="2"/>
-      <c r="C58" s="2" t="s">
-        <v>57</v>
+      <c r="C58" s="2">
+        <v>22700</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1720,8 +895,8 @@
         <v>40722</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="2" t="s">
-        <v>58</v>
+      <c r="C59" s="2">
+        <v>22700</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1729,8 +904,8 @@
         <v>40723</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="2" t="s">
-        <v>59</v>
+      <c r="C60" s="2">
+        <v>23000</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1738,8 +913,8 @@
         <v>40724</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="2" t="s">
-        <v>60</v>
+      <c r="C61" s="2">
+        <v>22800</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1747,8 +922,8 @@
         <v>40725</v>
       </c>
       <c r="B62" s="2"/>
-      <c r="C62" s="2" t="s">
-        <v>61</v>
+      <c r="C62" s="2">
+        <v>22600</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1756,8 +931,8 @@
         <v>40726</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="2" t="s">
-        <v>62</v>
+      <c r="C63" s="2">
+        <v>23000</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1765,8 +940,8 @@
         <v>40727</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="2" t="s">
-        <v>63</v>
+      <c r="C64" s="2">
+        <v>22100</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1774,8 +949,8 @@
         <v>40728</v>
       </c>
       <c r="B65" s="2"/>
-      <c r="C65" s="2" t="s">
-        <v>64</v>
+      <c r="C65" s="2">
+        <v>22200</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1783,8 +958,8 @@
         <v>40729</v>
       </c>
       <c r="B66" s="2"/>
-      <c r="C66" s="2" t="s">
-        <v>65</v>
+      <c r="C66" s="2">
+        <v>22400</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1792,8 +967,8 @@
         <v>40730</v>
       </c>
       <c r="B67" s="2"/>
-      <c r="C67" s="2" t="s">
-        <v>66</v>
+      <c r="C67" s="2">
+        <v>21800</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1801,8 +976,8 @@
         <v>40731</v>
       </c>
       <c r="B68" s="2"/>
-      <c r="C68" s="2" t="s">
-        <v>67</v>
+      <c r="C68" s="2">
+        <v>22700</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1810,8 +985,8 @@
         <v>40732</v>
       </c>
       <c r="B69" s="2"/>
-      <c r="C69" s="2" t="s">
-        <v>68</v>
+      <c r="C69" s="2">
+        <v>22200</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1819,8 +994,8 @@
         <v>40733</v>
       </c>
       <c r="B70" s="2"/>
-      <c r="C70" s="2" t="s">
-        <v>69</v>
+      <c r="C70" s="2">
+        <v>23000</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1828,8 +1003,8 @@
         <v>40734</v>
       </c>
       <c r="B71" s="2"/>
-      <c r="C71" s="2" t="s">
-        <v>70</v>
+      <c r="C71" s="2">
+        <v>23000</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1837,8 +1012,8 @@
         <v>40735</v>
       </c>
       <c r="B72" s="2"/>
-      <c r="C72" s="2" t="s">
-        <v>71</v>
+      <c r="C72" s="2">
+        <v>44100</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1846,8 +1021,8 @@
         <v>40736</v>
       </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="2" t="s">
-        <v>72</v>
+      <c r="C73" s="2">
+        <v>22700</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1855,8 +1030,8 @@
         <v>40737</v>
       </c>
       <c r="B74" s="2"/>
-      <c r="C74" s="2" t="s">
-        <v>73</v>
+      <c r="C74" s="2">
+        <v>23400</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1864,8 +1039,8 @@
         <v>40738</v>
       </c>
       <c r="B75" s="2"/>
-      <c r="C75" s="2" t="s">
-        <v>74</v>
+      <c r="C75" s="2">
+        <v>22800</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1873,8 +1048,8 @@
         <v>40739</v>
       </c>
       <c r="B76" s="2"/>
-      <c r="C76" s="2" t="s">
-        <v>75</v>
+      <c r="C76" s="2">
+        <v>23400</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1882,8 +1057,8 @@
         <v>40740</v>
       </c>
       <c r="B77" s="2"/>
-      <c r="C77" s="2" t="s">
-        <v>76</v>
+      <c r="C77" s="2">
+        <v>23400</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1891,8 +1066,8 @@
         <v>40741</v>
       </c>
       <c r="B78" s="2"/>
-      <c r="C78" s="2" t="s">
-        <v>77</v>
+      <c r="C78" s="2">
+        <v>23400</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1900,8 +1075,8 @@
         <v>40742</v>
       </c>
       <c r="B79" s="2"/>
-      <c r="C79" s="2" t="s">
-        <v>78</v>
+      <c r="C79" s="2">
+        <v>22700</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1909,8 +1084,8 @@
         <v>40743</v>
       </c>
       <c r="B80" s="2"/>
-      <c r="C80" s="2" t="s">
-        <v>79</v>
+      <c r="C80" s="2">
+        <v>23400</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1918,8 +1093,8 @@
         <v>40744</v>
       </c>
       <c r="B81" s="2"/>
-      <c r="C81" s="2" t="s">
-        <v>80</v>
+      <c r="C81" s="2">
+        <v>21100</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1927,8 +1102,8 @@
         <v>40745</v>
       </c>
       <c r="B82" s="2"/>
-      <c r="C82" s="2" t="s">
-        <v>81</v>
+      <c r="C82" s="2">
+        <v>22300</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1936,8 +1111,8 @@
         <v>40746</v>
       </c>
       <c r="B83" s="2"/>
-      <c r="C83" s="2" t="s">
-        <v>82</v>
+      <c r="C83" s="2">
+        <v>23200</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1945,8 +1120,8 @@
         <v>40747</v>
       </c>
       <c r="B84" s="2"/>
-      <c r="C84" s="2" t="s">
-        <v>83</v>
+      <c r="C84" s="2">
+        <v>22700</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1954,8 +1129,8 @@
         <v>40748</v>
       </c>
       <c r="B85" s="2"/>
-      <c r="C85" s="2" t="s">
-        <v>84</v>
+      <c r="C85" s="2">
+        <v>22600</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1963,8 +1138,8 @@
         <v>40749</v>
       </c>
       <c r="B86" s="2"/>
-      <c r="C86" s="2" t="s">
-        <v>85</v>
+      <c r="C86" s="2">
+        <v>23200</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1972,8 +1147,8 @@
         <v>40750</v>
       </c>
       <c r="B87" s="2"/>
-      <c r="C87" s="2" t="s">
-        <v>86</v>
+      <c r="C87" s="2">
+        <v>22400</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1981,8 +1156,8 @@
         <v>40751</v>
       </c>
       <c r="B88" s="2"/>
-      <c r="C88" s="2" t="s">
-        <v>87</v>
+      <c r="C88" s="2">
+        <v>23400</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1990,8 +1165,8 @@
         <v>40752</v>
       </c>
       <c r="B89" s="2"/>
-      <c r="C89" s="2" t="s">
-        <v>88</v>
+      <c r="C89" s="2">
+        <v>23400</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1999,8 +1174,8 @@
         <v>40753</v>
       </c>
       <c r="B90" s="2"/>
-      <c r="C90" s="2" t="s">
-        <v>89</v>
+      <c r="C90" s="2">
+        <v>23200</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2008,8 +1183,8 @@
         <v>40754</v>
       </c>
       <c r="B91" s="2"/>
-      <c r="C91" s="2" t="s">
-        <v>90</v>
+      <c r="C91" s="2">
+        <v>22300</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2017,8 +1192,8 @@
         <v>40755</v>
       </c>
       <c r="B92" s="2"/>
-      <c r="C92" s="2" t="s">
-        <v>91</v>
+      <c r="C92" s="2">
+        <v>23400</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2026,8 +1201,8 @@
         <v>40756</v>
       </c>
       <c r="B93" s="2"/>
-      <c r="C93" s="2" t="s">
-        <v>92</v>
+      <c r="C93" s="2">
+        <v>23200</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2035,8 +1210,8 @@
         <v>40757</v>
       </c>
       <c r="B94" s="2"/>
-      <c r="C94" s="2" t="s">
-        <v>93</v>
+      <c r="C94" s="2">
+        <v>22600</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2044,8 +1219,8 @@
         <v>40758</v>
       </c>
       <c r="B95" s="2"/>
-      <c r="C95" s="2" t="s">
-        <v>94</v>
+      <c r="C95" s="2">
+        <v>23400</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2053,8 +1228,8 @@
         <v>40759</v>
       </c>
       <c r="B96" s="2"/>
-      <c r="C96" s="2" t="s">
-        <v>95</v>
+      <c r="C96" s="2">
+        <v>23100</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2062,8 +1237,8 @@
         <v>40760</v>
       </c>
       <c r="B97" s="2"/>
-      <c r="C97" s="2" t="s">
-        <v>96</v>
+      <c r="C97" s="2">
+        <v>22600</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2071,8 +1246,8 @@
         <v>40761</v>
       </c>
       <c r="B98" s="2"/>
-      <c r="C98" s="2" t="s">
-        <v>97</v>
+      <c r="C98" s="2">
+        <v>23400</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2080,8 +1255,8 @@
         <v>40762</v>
       </c>
       <c r="B99" s="2"/>
-      <c r="C99" s="2" t="s">
-        <v>98</v>
+      <c r="C99" s="2">
+        <v>22200</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2089,8 +1264,8 @@
         <v>40763</v>
       </c>
       <c r="B100" s="2"/>
-      <c r="C100" s="2" t="s">
-        <v>99</v>
+      <c r="C100" s="2">
+        <v>23400</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2098,8 +1273,8 @@
         <v>40764</v>
       </c>
       <c r="B101" s="2"/>
-      <c r="C101" s="2" t="s">
-        <v>100</v>
+      <c r="C101" s="2">
+        <v>22900</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2107,8 +1282,8 @@
         <v>40765</v>
       </c>
       <c r="B102" s="2"/>
-      <c r="C102" s="2" t="s">
-        <v>101</v>
+      <c r="C102" s="2">
+        <v>22600</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2116,8 +1291,8 @@
         <v>40766</v>
       </c>
       <c r="B103" s="2"/>
-      <c r="C103" s="2" t="s">
-        <v>102</v>
+      <c r="C103" s="2">
+        <v>23100</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2125,8 +1300,8 @@
         <v>40767</v>
       </c>
       <c r="B104" s="2"/>
-      <c r="C104" s="2" t="s">
-        <v>103</v>
+      <c r="C104" s="2">
+        <v>23100</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2134,8 +1309,8 @@
         <v>40768</v>
       </c>
       <c r="B105" s="2"/>
-      <c r="C105" s="2" t="s">
-        <v>104</v>
+      <c r="C105" s="2">
+        <v>23400</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2143,8 +1318,8 @@
         <v>40769</v>
       </c>
       <c r="B106" s="2"/>
-      <c r="C106" s="2" t="s">
-        <v>105</v>
+      <c r="C106" s="2">
+        <v>23400</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2152,8 +1327,8 @@
         <v>40770</v>
       </c>
       <c r="B107" s="2"/>
-      <c r="C107" s="2" t="s">
-        <v>106</v>
+      <c r="C107" s="2">
+        <v>22700</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2161,8 +1336,8 @@
         <v>40771</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="C108" s="2" t="s">
-        <v>107</v>
+      <c r="C108" s="2">
+        <v>23100</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2170,8 +1345,8 @@
         <v>40772</v>
       </c>
       <c r="B109" s="2"/>
-      <c r="C109" s="2" t="s">
-        <v>108</v>
+      <c r="C109" s="2">
+        <v>23100</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2179,8 +1354,8 @@
         <v>40773</v>
       </c>
       <c r="B110" s="2"/>
-      <c r="C110" s="2" t="s">
-        <v>109</v>
+      <c r="C110" s="2">
+        <v>21400</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2188,8 +1363,8 @@
         <v>40774</v>
       </c>
       <c r="B111" s="2"/>
-      <c r="C111" s="2" t="s">
-        <v>110</v>
+      <c r="C111" s="2">
+        <v>22900</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2197,8 +1372,8 @@
         <v>40775</v>
       </c>
       <c r="B112" s="2"/>
-      <c r="C112" s="2" t="s">
-        <v>111</v>
+      <c r="C112" s="2">
+        <v>23400</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2206,8 +1381,8 @@
         <v>40776</v>
       </c>
       <c r="B113" s="2"/>
-      <c r="C113" s="2" t="s">
-        <v>112</v>
+      <c r="C113" s="2">
+        <v>23400</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2215,8 +1390,8 @@
         <v>40777</v>
       </c>
       <c r="B114" s="2"/>
-      <c r="C114" s="2" t="s">
-        <v>113</v>
+      <c r="C114" s="2">
+        <v>48300</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2224,8 +1399,8 @@
         <v>40778</v>
       </c>
       <c r="B115" s="2"/>
-      <c r="C115" s="2" t="s">
-        <v>114</v>
+      <c r="C115" s="2">
+        <v>25000</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2233,8 +1408,8 @@
         <v>40779</v>
       </c>
       <c r="B116" s="2"/>
-      <c r="C116" s="2" t="s">
-        <v>115</v>
+      <c r="C116" s="2">
+        <v>24100</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2242,8 +1417,8 @@
         <v>40780</v>
       </c>
       <c r="B117" s="2"/>
-      <c r="C117" s="2" t="s">
-        <v>116</v>
+      <c r="C117" s="2">
+        <v>22500</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2251,8 +1426,8 @@
         <v>40781</v>
       </c>
       <c r="B118" s="2"/>
-      <c r="C118" s="2" t="s">
-        <v>117</v>
+      <c r="C118" s="2">
+        <v>24600</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2260,8 +1435,8 @@
         <v>40782</v>
       </c>
       <c r="B119" s="2"/>
-      <c r="C119" s="2" t="s">
-        <v>118</v>
+      <c r="C119" s="2">
+        <v>25000</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2269,8 +1444,8 @@
         <v>40783</v>
       </c>
       <c r="B120" s="2"/>
-      <c r="C120" s="2" t="s">
-        <v>119</v>
+      <c r="C120" s="2">
+        <v>25000</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2278,8 +1453,8 @@
         <v>40784</v>
       </c>
       <c r="B121" s="2"/>
-      <c r="C121" s="2" t="s">
-        <v>120</v>
+      <c r="C121" s="2">
+        <v>24200</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2287,8 +1462,8 @@
         <v>40785</v>
       </c>
       <c r="B122" s="2"/>
-      <c r="C122" s="2" t="s">
-        <v>121</v>
+      <c r="C122" s="2">
+        <v>24800</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2296,8 +1471,8 @@
         <v>40786</v>
       </c>
       <c r="B123" s="2"/>
-      <c r="C123" s="2" t="s">
-        <v>122</v>
+      <c r="C123" s="2">
+        <v>24800</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2305,8 +1480,8 @@
         <v>40787</v>
       </c>
       <c r="B124" s="2"/>
-      <c r="C124" s="2" t="s">
-        <v>123</v>
+      <c r="C124" s="2">
+        <v>24600</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2314,8 +1489,8 @@
         <v>40788</v>
       </c>
       <c r="B125" s="2"/>
-      <c r="C125" s="2" t="s">
-        <v>124</v>
+      <c r="C125" s="2">
+        <v>24800</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2323,8 +1498,8 @@
         <v>40789</v>
       </c>
       <c r="B126" s="2"/>
-      <c r="C126" s="2" t="s">
-        <v>125</v>
+      <c r="C126" s="2">
+        <v>25100</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2332,8 +1507,8 @@
         <v>40790</v>
       </c>
       <c r="B127" s="2"/>
-      <c r="C127" s="2" t="s">
-        <v>126</v>
+      <c r="C127" s="2">
+        <v>25100</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2341,8 +1516,8 @@
         <v>40791</v>
       </c>
       <c r="B128" s="2"/>
-      <c r="C128" s="2" t="s">
-        <v>127</v>
+      <c r="C128" s="2">
+        <v>24500</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2350,8 +1525,8 @@
         <v>40792</v>
       </c>
       <c r="B129" s="2"/>
-      <c r="C129" s="2" t="s">
-        <v>128</v>
+      <c r="C129" s="2">
+        <v>23700</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2359,8 +1534,8 @@
         <v>40793</v>
       </c>
       <c r="B130" s="2"/>
-      <c r="C130" s="2" t="s">
-        <v>129</v>
+      <c r="C130" s="2">
+        <v>25100</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2368,8 +1543,8 @@
         <v>40794</v>
       </c>
       <c r="B131" s="2"/>
-      <c r="C131" s="2" t="s">
-        <v>130</v>
+      <c r="C131" s="2">
+        <v>25100</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2377,8 +1552,8 @@
         <v>40795</v>
       </c>
       <c r="B132" s="2"/>
-      <c r="C132" s="2" t="s">
-        <v>131</v>
+      <c r="C132" s="2">
+        <v>25100</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2386,8 +1561,8 @@
         <v>40796</v>
       </c>
       <c r="B133" s="2"/>
-      <c r="C133" s="2" t="s">
-        <v>132</v>
+      <c r="C133" s="2">
+        <v>25100</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2395,8 +1570,8 @@
         <v>40797</v>
       </c>
       <c r="B134" s="2"/>
-      <c r="C134" s="2" t="s">
-        <v>133</v>
+      <c r="C134" s="2">
+        <v>24500</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2404,8 +1579,8 @@
         <v>40798</v>
       </c>
       <c r="B135" s="2"/>
-      <c r="C135" s="2" t="s">
-        <v>134</v>
+      <c r="C135" s="2">
+        <v>24600</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2413,8 +1588,8 @@
         <v>40799</v>
       </c>
       <c r="B136" s="2"/>
-      <c r="C136" s="2" t="s">
-        <v>135</v>
+      <c r="C136" s="2">
+        <v>24800</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2422,8 +1597,8 @@
         <v>40800</v>
       </c>
       <c r="B137" s="2"/>
-      <c r="C137" s="2" t="s">
-        <v>136</v>
+      <c r="C137" s="2">
+        <v>24900</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2431,8 +1606,8 @@
         <v>40801</v>
       </c>
       <c r="B138" s="2"/>
-      <c r="C138" s="2" t="s">
-        <v>137</v>
+      <c r="C138" s="2">
+        <v>25100</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2440,8 +1615,8 @@
         <v>40802</v>
       </c>
       <c r="B139" s="2"/>
-      <c r="C139" s="2" t="s">
-        <v>138</v>
+      <c r="C139" s="2">
+        <v>24400</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2449,8 +1624,8 @@
         <v>40803</v>
       </c>
       <c r="B140" s="2"/>
-      <c r="C140" s="2" t="s">
-        <v>139</v>
+      <c r="C140" s="2">
+        <v>25100</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2458,8 +1633,8 @@
         <v>40804</v>
       </c>
       <c r="B141" s="2"/>
-      <c r="C141" s="2" t="s">
-        <v>140</v>
+      <c r="C141" s="2">
+        <v>25100</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2467,8 +1642,8 @@
         <v>40805</v>
       </c>
       <c r="B142" s="2"/>
-      <c r="C142" s="2" t="s">
-        <v>141</v>
+      <c r="C142" s="2">
+        <v>24200</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2476,8 +1651,8 @@
         <v>40806</v>
       </c>
       <c r="B143" s="2"/>
-      <c r="C143" s="2" t="s">
-        <v>142</v>
+      <c r="C143" s="2">
+        <v>24900</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2485,8 +1660,8 @@
         <v>40807</v>
       </c>
       <c r="B144" s="2"/>
-      <c r="C144" s="2" t="s">
-        <v>143</v>
+      <c r="C144" s="2">
+        <v>24900</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2494,8 +1669,8 @@
         <v>40808</v>
       </c>
       <c r="B145" s="2"/>
-      <c r="C145" s="2" t="s">
-        <v>144</v>
+      <c r="C145" s="2">
+        <v>24400</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2503,8 +1678,8 @@
         <v>40809</v>
       </c>
       <c r="B146" s="2"/>
-      <c r="C146" s="2" t="s">
-        <v>145</v>
+      <c r="C146" s="2">
+        <v>24900</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2512,8 +1687,8 @@
         <v>40810</v>
       </c>
       <c r="B147" s="2"/>
-      <c r="C147" s="2" t="s">
-        <v>146</v>
+      <c r="C147" s="2">
+        <v>25100</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2521,8 +1696,8 @@
         <v>40811</v>
       </c>
       <c r="B148" s="2"/>
-      <c r="C148" s="2" t="s">
-        <v>147</v>
+      <c r="C148" s="2">
+        <v>25100</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2530,8 +1705,8 @@
         <v>40812</v>
       </c>
       <c r="B149" s="2"/>
-      <c r="C149" s="2" t="s">
-        <v>148</v>
+      <c r="C149" s="2">
+        <v>24800</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2539,8 +1714,8 @@
         <v>40813</v>
       </c>
       <c r="B150" s="2"/>
-      <c r="C150" s="2" t="s">
-        <v>149</v>
+      <c r="C150" s="2">
+        <v>24500</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2548,8 +1723,8 @@
         <v>40814</v>
       </c>
       <c r="B151" s="2"/>
-      <c r="C151" s="2" t="s">
-        <v>150</v>
+      <c r="C151" s="2">
+        <v>24600</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2557,8 +1732,8 @@
         <v>40815</v>
       </c>
       <c r="B152" s="2"/>
-      <c r="C152" s="2" t="s">
-        <v>151</v>
+      <c r="C152" s="2">
+        <v>23800</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2566,8 +1741,8 @@
         <v>40816</v>
       </c>
       <c r="B153" s="2"/>
-      <c r="C153" s="2" t="s">
-        <v>152</v>
+      <c r="C153" s="2">
+        <v>24900</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2575,8 +1750,8 @@
         <v>40817</v>
       </c>
       <c r="B154" s="2"/>
-      <c r="C154" s="2" t="s">
-        <v>153</v>
+      <c r="C154" s="2">
+        <v>25100</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2584,8 +1759,8 @@
         <v>40818</v>
       </c>
       <c r="B155" s="2"/>
-      <c r="C155" s="2" t="s">
-        <v>154</v>
+      <c r="C155" s="2">
+        <v>52300</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2593,8 +1768,8 @@
         <v>40819</v>
       </c>
       <c r="B156" s="2"/>
-      <c r="C156" s="2" t="s">
-        <v>155</v>
+      <c r="C156" s="2">
+        <v>27200</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2602,8 +1777,8 @@
         <v>40820</v>
       </c>
       <c r="B157" s="2"/>
-      <c r="C157" s="2" t="s">
-        <v>156</v>
+      <c r="C157" s="2">
+        <v>25500</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2611,8 +1786,8 @@
         <v>40821</v>
       </c>
       <c r="B158" s="2"/>
-      <c r="C158" s="2" t="s">
-        <v>157</v>
+      <c r="C158" s="2">
+        <v>23700</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2620,8 +1795,8 @@
         <v>40822</v>
       </c>
       <c r="B159" s="2"/>
-      <c r="C159" s="2" t="s">
-        <v>158</v>
+      <c r="C159" s="2">
+        <v>24800</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2629,8 +1804,8 @@
         <v>40823</v>
       </c>
       <c r="B160" s="2"/>
-      <c r="C160" s="2" t="s">
-        <v>159</v>
+      <c r="C160" s="2">
+        <v>26600</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2638,8 +1813,8 @@
         <v>40824</v>
       </c>
       <c r="B161" s="2"/>
-      <c r="C161" s="2" t="s">
-        <v>160</v>
+      <c r="C161" s="2">
+        <v>27200</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2647,8 +1822,8 @@
         <v>40825</v>
       </c>
       <c r="B162" s="2"/>
-      <c r="C162" s="2" t="s">
-        <v>161</v>
+      <c r="C162" s="2">
+        <v>27200</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2656,8 +1831,8 @@
         <v>40826</v>
       </c>
       <c r="B163" s="2"/>
-      <c r="C163" s="2" t="s">
-        <v>162</v>
+      <c r="C163" s="2">
+        <v>26400</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2665,8 +1840,8 @@
         <v>40827</v>
       </c>
       <c r="B164" s="2"/>
-      <c r="C164" s="2" t="s">
-        <v>163</v>
+      <c r="C164" s="2">
+        <v>26700</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2674,8 +1849,8 @@
         <v>40828</v>
       </c>
       <c r="B165" s="2"/>
-      <c r="C165" s="2" t="s">
-        <v>164</v>
+      <c r="C165" s="2">
+        <v>25900</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2683,8 +1858,8 @@
         <v>40829</v>
       </c>
       <c r="B166" s="2"/>
-      <c r="C166" s="2" t="s">
-        <v>165</v>
+      <c r="C166" s="2">
+        <v>26100</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2692,8 +1867,8 @@
         <v>40830</v>
       </c>
       <c r="B167" s="2"/>
-      <c r="C167" s="2" t="s">
-        <v>166</v>
+      <c r="C167" s="2">
+        <v>26200</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2701,8 +1876,8 @@
         <v>40831</v>
       </c>
       <c r="B168" s="2"/>
-      <c r="C168" s="2" t="s">
-        <v>167</v>
+      <c r="C168" s="2">
+        <v>27200</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2710,8 +1885,8 @@
         <v>40832</v>
       </c>
       <c r="B169" s="2"/>
-      <c r="C169" s="2" t="s">
-        <v>168</v>
+      <c r="C169" s="2">
+        <v>27200</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2719,8 +1894,8 @@
         <v>40833</v>
       </c>
       <c r="B170" s="2"/>
-      <c r="C170" s="2" t="s">
-        <v>169</v>
+      <c r="C170" s="2">
+        <v>27200</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2728,8 +1903,8 @@
         <v>40834</v>
       </c>
       <c r="B171" s="2"/>
-      <c r="C171" s="2" t="s">
-        <v>170</v>
+      <c r="C171" s="2">
+        <v>26300</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2737,8 +1912,8 @@
         <v>40835</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="2" t="s">
-        <v>171</v>
+      <c r="C172" s="2">
+        <v>26900</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2746,8 +1921,8 @@
         <v>40836</v>
       </c>
       <c r="B173" s="2"/>
-      <c r="C173" s="2" t="s">
-        <v>172</v>
+      <c r="C173" s="2">
+        <v>26200</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2755,8 +1930,8 @@
         <v>40837</v>
       </c>
       <c r="B174" s="2"/>
-      <c r="C174" s="2" t="s">
-        <v>173</v>
+      <c r="C174" s="2">
+        <v>25700</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2764,8 +1939,8 @@
         <v>40838</v>
       </c>
       <c r="B175" s="2"/>
-      <c r="C175" s="2" t="s">
-        <v>174</v>
+      <c r="C175" s="2">
+        <v>27200</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2773,8 +1948,8 @@
         <v>40839</v>
       </c>
       <c r="B176" s="2"/>
-      <c r="C176" s="2" t="s">
-        <v>175</v>
+      <c r="C176" s="2">
+        <v>25900</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -2782,8 +1957,8 @@
         <v>40840</v>
       </c>
       <c r="B177" s="2"/>
-      <c r="C177" s="2" t="s">
-        <v>176</v>
+      <c r="C177" s="2">
+        <v>26900</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -2791,8 +1966,8 @@
         <v>40841</v>
       </c>
       <c r="B178" s="2"/>
-      <c r="C178" s="2" t="s">
-        <v>177</v>
+      <c r="C178" s="2">
+        <v>26600</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -2800,8 +1975,8 @@
         <v>40842</v>
       </c>
       <c r="B179" s="2"/>
-      <c r="C179" s="2" t="s">
-        <v>178</v>
+      <c r="C179" s="2">
+        <v>26600</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -2809,8 +1984,8 @@
         <v>40843</v>
       </c>
       <c r="B180" s="2"/>
-      <c r="C180" s="2" t="s">
-        <v>179</v>
+      <c r="C180" s="2">
+        <v>26400</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -2818,8 +1993,8 @@
         <v>40844</v>
       </c>
       <c r="B181" s="2"/>
-      <c r="C181" s="2" t="s">
-        <v>180</v>
+      <c r="C181" s="2">
+        <v>26300</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -2827,8 +2002,8 @@
         <v>40845</v>
       </c>
       <c r="B182" s="2"/>
-      <c r="C182" s="2" t="s">
-        <v>181</v>
+      <c r="C182" s="2">
+        <v>26200</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -2836,8 +2011,8 @@
         <v>40846</v>
       </c>
       <c r="B183" s="2"/>
-      <c r="C183" s="2" t="s">
-        <v>182</v>
+      <c r="C183" s="2">
+        <v>27200</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -2845,8 +2020,8 @@
         <v>40847</v>
       </c>
       <c r="B184" s="2"/>
-      <c r="C184" s="2" t="s">
-        <v>183</v>
+      <c r="C184" s="2">
+        <v>25600</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -2854,8 +2029,8 @@
         <v>40848</v>
       </c>
       <c r="B185" s="2"/>
-      <c r="C185" s="2" t="s">
-        <v>184</v>
+      <c r="C185" s="2">
+        <v>27200</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -2863,8 +2038,8 @@
         <v>40849</v>
       </c>
       <c r="B186" s="2"/>
-      <c r="C186" s="2" t="s">
-        <v>185</v>
+      <c r="C186" s="2">
+        <v>26900</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -2872,8 +2047,8 @@
         <v>40850</v>
       </c>
       <c r="B187" s="2"/>
-      <c r="C187" s="2" t="s">
-        <v>186</v>
+      <c r="C187" s="2">
+        <v>26700</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -2881,8 +2056,8 @@
         <v>40851</v>
       </c>
       <c r="B188" s="2"/>
-      <c r="C188" s="2" t="s">
-        <v>187</v>
+      <c r="C188" s="2">
+        <v>26100</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -2890,8 +2065,8 @@
         <v>40852</v>
       </c>
       <c r="B189" s="2"/>
-      <c r="C189" s="2" t="s">
-        <v>188</v>
+      <c r="C189" s="2">
+        <v>27200</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -2899,8 +2074,8 @@
         <v>40853</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="2" t="s">
-        <v>189</v>
+      <c r="C190" s="2">
+        <v>27200</v>
       </c>
       <c r="F190" s="2"/>
     </row>
@@ -2909,8 +2084,8 @@
         <v>40854</v>
       </c>
       <c r="B191" s="2"/>
-      <c r="C191" s="2" t="s">
-        <v>190</v>
+      <c r="C191" s="2">
+        <v>26900</v>
       </c>
       <c r="F191" s="2"/>
     </row>
@@ -2919,8 +2094,8 @@
         <v>40855</v>
       </c>
       <c r="B192" s="2"/>
-      <c r="C192" s="2" t="s">
-        <v>191</v>
+      <c r="C192" s="2">
+        <v>26900</v>
       </c>
       <c r="F192" s="2"/>
     </row>
@@ -2929,8 +2104,8 @@
         <v>40856</v>
       </c>
       <c r="B193" s="2"/>
-      <c r="C193" s="2" t="s">
-        <v>192</v>
+      <c r="C193" s="2">
+        <v>27200</v>
       </c>
       <c r="F193" s="2"/>
     </row>
@@ -2939,8 +2114,8 @@
         <v>40857</v>
       </c>
       <c r="B194" s="2"/>
-      <c r="C194" s="2" t="s">
-        <v>193</v>
+      <c r="C194" s="2">
+        <v>26900</v>
       </c>
       <c r="F194" s="2"/>
     </row>
@@ -2949,8 +2124,8 @@
         <v>40858</v>
       </c>
       <c r="B195" s="2"/>
-      <c r="C195" s="2" t="s">
-        <v>194</v>
+      <c r="C195" s="2">
+        <v>26900</v>
       </c>
       <c r="F195" s="2"/>
     </row>
@@ -2959,8 +2134,8 @@
         <v>40859</v>
       </c>
       <c r="B196" s="2"/>
-      <c r="C196" s="2" t="s">
-        <v>195</v>
+      <c r="C196" s="2">
+        <v>27200</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -2968,8 +2143,8 @@
         <v>40860</v>
       </c>
       <c r="B197" s="2"/>
-      <c r="C197" s="2" t="s">
-        <v>196</v>
+      <c r="C197" s="2">
+        <v>55000</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -2977,8 +2152,8 @@
         <v>40861</v>
       </c>
       <c r="B198" s="2"/>
-      <c r="C198" s="2" t="s">
-        <v>197</v>
+      <c r="C198" s="2">
+        <v>27800</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -2986,8 +2161,8 @@
         <v>40862</v>
       </c>
       <c r="B199" s="2"/>
-      <c r="C199" s="2" t="s">
-        <v>198</v>
+      <c r="C199" s="2">
+        <v>26900</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -2995,8 +2170,8 @@
         <v>40863</v>
       </c>
       <c r="B200" s="2"/>
-      <c r="C200" s="2" t="s">
-        <v>199</v>
+      <c r="C200" s="2">
+        <v>26200</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -3004,755 +2179,806 @@
         <v>40864</v>
       </c>
       <c r="B201" s="2"/>
-      <c r="C201" s="2" t="s">
-        <v>200</v>
+      <c r="C201" s="2">
+        <v>27600</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>40865</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>201</v>
+      <c r="C202" s="2">
+        <v>27800</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>40866</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>202</v>
+      <c r="C203" s="2">
+        <v>27800</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>40867</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>203</v>
+      <c r="C204" s="2">
+        <v>26300</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>40868</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>204</v>
+      <c r="C205" s="2">
+        <v>27200</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>40869</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>205</v>
+      <c r="C206" s="2">
+        <v>27800</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>40870</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>206</v>
+      <c r="C207" s="2">
+        <v>27500</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>40871</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>207</v>
+      <c r="C208" s="2">
+        <v>27800</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>40872</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>208</v>
+      <c r="C209" s="2">
+        <v>27200</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>40873</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>209</v>
+      <c r="C210" s="2">
+        <v>27800</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>40874</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>210</v>
+      <c r="C211" s="2">
+        <v>27100</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>40875</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>211</v>
+      <c r="C212" s="2">
+        <v>27500</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>40876</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>212</v>
+      <c r="C213" s="2">
+        <v>27600</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>40877</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>213</v>
+      <c r="C214" s="2">
+        <v>27600</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>40878</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>214</v>
+      <c r="C215" s="2">
+        <v>27300</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>40879</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>215</v>
+      <c r="C216" s="2">
+        <v>27300</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>40880</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>216</v>
+      <c r="C217" s="2">
+        <v>27800</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>40881</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>217</v>
+      <c r="C218" s="2">
+        <v>27800</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>40882</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>218</v>
+      <c r="C219" s="2">
+        <v>27800</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>40883</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>219</v>
+      <c r="C220" s="2">
+        <v>26600</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>40884</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>220</v>
+      <c r="C221" s="2">
+        <v>27300</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>40885</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>221</v>
+      <c r="C222" s="2">
+        <v>27300</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>40886</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>222</v>
+      <c r="C223" s="2">
+        <v>27800</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>40887</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>223</v>
+      <c r="C224" s="2">
+        <v>27800</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>40888</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>224</v>
+      <c r="C225" s="2">
+        <v>27800</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>40889</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>225</v>
+      <c r="C226" s="2">
+        <v>27500</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>40890</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>226</v>
+      <c r="C227" s="2">
+        <v>27500</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>40891</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>227</v>
+      <c r="C228" s="2">
+        <v>27500</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>40892</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>228</v>
+      <c r="C229" s="2">
+        <v>27000</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>40893</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>229</v>
+      <c r="C230" s="2">
+        <v>26700</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>40894</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>230</v>
+      <c r="C231" s="2">
+        <v>27800</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>40895</v>
       </c>
-      <c r="C232" s="2" t="s">
-        <v>231</v>
+      <c r="C232" s="2">
+        <v>27800</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>40896</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>232</v>
+      <c r="C233" s="2">
+        <v>26100</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>40897</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>233</v>
+      <c r="C234" s="2">
+        <v>27200</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>40898</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>234</v>
+      <c r="C235" s="2">
+        <v>27000</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>40899</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>235</v>
+      <c r="C236" s="2">
+        <v>27800</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>40900</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>236</v>
+      <c r="C237" s="2">
+        <v>26700</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>40901</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>237</v>
+      <c r="C238" s="2">
+        <v>26500</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>40902</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>238</v>
+      <c r="C239" s="2">
+        <v>28800</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>40903</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>239</v>
+      <c r="C240" s="2">
+        <v>28800</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>40904</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>240</v>
+      <c r="C241" s="2">
+        <v>28800</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>40905</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>241</v>
+      <c r="C242" s="2">
+        <v>27900</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>40906</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>242</v>
+      <c r="C243" s="2">
+        <v>28800</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>40907</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>243</v>
+      <c r="C244" s="2">
+        <v>28300</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>40908</v>
       </c>
-      <c r="C245" s="2" t="s">
-        <v>244</v>
+      <c r="C245" s="2">
+        <v>28800</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>40909</v>
       </c>
-      <c r="C246" s="2" t="s">
-        <v>245</v>
+      <c r="C246" s="2">
+        <v>28800</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>40910</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>246</v>
+      <c r="C247" s="2">
+        <v>28800</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>40911</v>
       </c>
-      <c r="C248" s="2" t="s">
-        <v>247</v>
+      <c r="C248" s="2">
+        <v>28000</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>40912</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>248</v>
+      <c r="C249" s="2">
+        <v>28500</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>40913</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>249</v>
+      <c r="C250" s="2">
+        <v>28800</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>40914</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>250</v>
+      <c r="C251" s="2">
+        <v>28500</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>40915</v>
       </c>
-      <c r="C252" s="2" t="s">
-        <v>251</v>
+      <c r="C252" s="2">
+        <v>28800</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>40916</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>252</v>
+      <c r="C253" s="2">
+        <v>28800</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>40917</v>
       </c>
-      <c r="C254" s="2" t="s">
-        <v>253</v>
+      <c r="C254" s="2">
+        <v>28800</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>40918</v>
       </c>
-      <c r="C255" s="2" t="s">
-        <v>254</v>
+      <c r="C255" s="2">
+        <v>28500</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>40919</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>255</v>
+      <c r="C256" s="2">
+        <v>28600</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>40920</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>256</v>
+      <c r="C257" s="2">
+        <v>28500</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>40921</v>
       </c>
-      <c r="C258" s="2" t="s">
-        <v>257</v>
+      <c r="C258" s="2">
+        <v>28800</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>40922</v>
       </c>
-      <c r="C259" s="2" t="s">
-        <v>258</v>
+      <c r="C259" s="2">
+        <v>27700</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>40923</v>
       </c>
-      <c r="C260" s="2" t="s">
-        <v>259</v>
+      <c r="C260" s="2">
+        <v>28800</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>40924</v>
       </c>
-      <c r="C261" s="2" t="s">
-        <v>260</v>
+      <c r="C261" s="2">
+        <v>26900</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>40925</v>
       </c>
-      <c r="C262" s="2" t="s">
-        <v>261</v>
+      <c r="C262" s="2">
+        <v>28800</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>40926</v>
       </c>
-      <c r="C263" s="2" t="s">
-        <v>262</v>
+      <c r="C263" s="2">
+        <v>28100</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>40927</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>263</v>
+      <c r="C264" s="2">
+        <v>27900</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>40928</v>
       </c>
-      <c r="C265" s="2" t="s">
-        <v>264</v>
+      <c r="C265" s="2">
+        <v>28800</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>40929</v>
       </c>
-      <c r="C266" s="2" t="s">
-        <v>265</v>
+      <c r="C266" s="2">
+        <v>28800</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>40930</v>
       </c>
-      <c r="C267" s="2" t="s">
-        <v>266</v>
+      <c r="C267" s="2">
+        <v>28800</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>40931</v>
       </c>
-      <c r="C268" s="2" t="s">
-        <v>267</v>
+      <c r="C268" s="2">
+        <v>28200</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>40932</v>
       </c>
-      <c r="C269" s="2" t="s">
-        <v>268</v>
+      <c r="C269" s="2">
+        <v>28800</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>40933</v>
       </c>
-      <c r="C270" s="2" t="s">
-        <v>269</v>
+      <c r="C270" s="2">
+        <v>28600</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>40934</v>
       </c>
-      <c r="C271" s="2" t="s">
-        <v>270</v>
+      <c r="C271" s="2">
+        <v>28600</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>40935</v>
       </c>
-      <c r="C272" s="2" t="s">
-        <v>271</v>
+      <c r="C272" s="2">
+        <v>28600</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>40936</v>
       </c>
-      <c r="C273" s="2" t="s">
-        <v>272</v>
+      <c r="C273" s="2">
+        <v>28800</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>40937</v>
       </c>
-      <c r="C274" s="2" t="s">
-        <v>273</v>
+      <c r="C274" s="2">
+        <v>28800</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>40938</v>
       </c>
-      <c r="C275" s="2" t="s">
-        <v>274</v>
+      <c r="C275" s="2">
+        <v>28100</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>40939</v>
       </c>
-      <c r="C276" s="2" t="s">
-        <v>275</v>
+      <c r="C276" s="2">
+        <v>28800</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>40940</v>
       </c>
-      <c r="C277" s="2" t="s">
-        <v>276</v>
+      <c r="C277" s="2">
+        <v>26900</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>40941</v>
       </c>
-      <c r="C278" s="2" t="s">
-        <v>277</v>
+      <c r="C278" s="2">
+        <v>28000</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>40942</v>
       </c>
-      <c r="C279" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C279" s="2">
+        <v>28300</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>40943</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C280" s="2">
+        <v>62400</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>40944</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C281" s="2">
+        <v>32600</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>40945</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C282" s="2">
+        <v>33200</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>40946</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C283" s="2">
+        <v>33300</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>40947</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C284" s="2">
+        <v>33300</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>40948</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C285" s="2">
+        <v>33200</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>40949</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C286" s="2">
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>40950</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C287" s="2">
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>40951</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C288" s="2">
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>40952</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C289" s="2">
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>40953</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C290" s="2">
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>40954</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C291" s="2">
+        <v>32100</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>40955</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C292" s="2">
+        <v>33200</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>40956</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C293" s="2">
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>40957</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C294" s="2">
+        <v>32300</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>40958</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C295" s="2">
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>40959</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C296" s="2">
+        <v>33200</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>40960</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>40961</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>40962</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>40963</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>40964</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>40965</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>40966</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>40967</v>
       </c>
